--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD3B02A-A8D0-43C2-9B5E-3FD6BECE9EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50EEF9-2BC9-4D8E-B753-E606DFF6BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>Ngừng theo dõi</t>
-  </si>
-  <si>
     <t>Mã hàng (*)</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>321</t>
+  </si>
+  <si>
+    <t>Giá bán là đơn giá sau thuế</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,53 +486,53 @@
     <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="5"/>
     </row>
   </sheetData>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RD-Thien\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50EEF9-2BC9-4D8E-B753-E606DFF6BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã hàng (*)</t>
   </si>
@@ -41,12 +40,6 @@
   </si>
   <si>
     <t>Mô tả</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>321</t>
   </si>
   <si>
     <t>Giá bán là đơn giá sau thuế</t>
@@ -55,12 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\(#,##0.00\)\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +68,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -101,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,27 +106,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -152,24 +118,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,15 +427,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +443,10 @@
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22" style="8" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -503,39 +461,27 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5"/>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Giá bán là đơn giá sau thuế. _x000a_- Chọn 0 : Giá bán không phải là đơn giá sau thuế_x000a_- Chọn 1 : Giá bán là đơn giá sau thuế" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Thuế GTGT (%)_x000a_- Thuế suất 0%, 5%, 10%: điền giá trị tương ứng 0, 5, 10_x000a_- Không chịu thuế: điền giá trị KCT_x000a_- Không kê khai nộp thuế: điền giá trị KKKNT_x000a_- TH Khác: KHAC" sqref="F1:F1048576"/>
+  </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.39370078740157483" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RD-Thien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
@@ -435,23 +435,23 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="22" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="37.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,8 +479,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Giá bán là đơn giá sau thuế. _x000a_- Chọn 0 : Giá bán không phải là đơn giá sau thuế_x000a_- Chọn 1 : Giá bán là đơn giá sau thuế" sqref="E1:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Thuế GTGT (%)_x000a_- Thuế suất 0%, 5%, 10%: điền giá trị tương ứng 0, 5, 10_x000a_- Không chịu thuế: điền giá trị KCT_x000a_- Không kê khai nộp thuế: điền giá trị KKKNT_x000a_- TH Khác: KHAC" sqref="F1:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Giá bán là đơn giá sau thuế. _x000a_- Chọn 0 : Giá bán không phải là đơn giá sau thuế_x000a_- Chọn 1 : Giá bán là đơn giá sau thuế" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Thuế GTGT (%)_x000a_- Thuế suất 0%, 5%, 10%: điền giá trị tương ứng 0, 5, 10_x000a_- Không chịu thuế: điền giá trị KCT_x000a_- Không kê khai nộp thuế: điền giá trị KKKNT_x000a_- TH Khác: KHAC" sqref="F1:F1048576"/>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.39370078740157483" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Hang_Hoa_Dich_Vu_Import.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanlt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
   </bookViews>
   <sheets>
-    <sheet name="KETOAN-BACHKHOA" sheetId="1" r:id="rId1"/>
+    <sheet name="HOADON-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
